--- a/biology/Zoologie/Carouge_à_calotte_rousse/Carouge_à_calotte_rousse.xlsx
+++ b/biology/Zoologie/Carouge_à_calotte_rousse/Carouge_à_calotte_rousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carouge_%C3%A0_calotte_rousse</t>
+          <t>Carouge_à_calotte_rousse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysomus ruficapillus
 Le Carouge à calotte rousse (Chrysomus ruficapillus), également appelé Troupiale à tête marron, est une espèce de passereau de la famille des ictéridés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carouge_%C3%A0_calotte_rousse</t>
+          <t>Carouge_à_calotte_rousse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il occupe les basses terres (en dessous de 500 m) dans tout l’est et le sud du Brésil, l’est de la Guyane française, le sud-est de la Bolivie, le Paraguay, l’Uruguay et le nord-est de l’Argentine.  Il est relativement abondant.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carouge_%C3%A0_calotte_rousse</t>
+          <t>Carouge_à_calotte_rousse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Synonyme : Agelaius ruficapillus.
 D'après Alan P. Peterson, cette espèce est constituée des sous-espèces suivantes :
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carouge_%C3%A0_calotte_rousse</t>
+          <t>Carouge_à_calotte_rousse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche dans les marais et les phragmitaies.  Il cherche sa nourriture dans une variété d’habitats, incluant les zones agricoles, les fossés, tous les milieux humides.  Il affectionne les plantations de riz où il peut faire des ravages.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carouge_%C3%A0_calotte_rousse</t>
+          <t>Carouge_à_calotte_rousse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Carouge à calotte rousse niche en colonie.  Le nid fait de matière végétale est placé dans la végétation émergente à environ 1 m au-dessus de l’eau.  Les nids sont souvent à moins d’un mètre les uns des autres.  La couvée comprend trois œufs. Il est parfois l’hôte du Vacher luisant.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carouge_%C3%A0_calotte_rousse</t>
+          <t>Carouge_à_calotte_rousse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Carouge à calotte rousse est très grégaire, autant pendant qu’en dehors de la saison de nidification.  En dehors de la saison des nids, il peut former des groupes de plusieurs milliers d’individus.
 </t>
